--- a/data/ad_acv.xlsx
+++ b/data/ad_acv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.9020723123446283</v>
+        <v>0.9059736235798841</v>
       </c>
       <c r="D2">
-        <v>0.898868581737441</v>
+        <v>0.00711537158413927</v>
       </c>
       <c r="E2">
-        <v>0.8955920484010372</v>
+        <v>0.8996791978242232</v>
       </c>
       <c r="F2">
-        <v>0.8904905014965487</v>
+        <v>0.01164431962057356</v>
       </c>
       <c r="G2">
-        <v>0.8931551680115092</v>
+        <v>0.8972876073138771</v>
+      </c>
+      <c r="H2">
+        <v>0.01586012749448935</v>
+      </c>
+      <c r="I2">
+        <v>0.8924851062610987</v>
+      </c>
+      <c r="J2">
+        <v>0.0154495749963656</v>
+      </c>
+      <c r="K2">
+        <v>0.8939424273272254</v>
+      </c>
+      <c r="L2">
+        <v>0.007957667679034016</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8999833149237013</v>
+        <v>0.9072747014115092</v>
       </c>
       <c r="D3">
-        <v>0.8955363585900639</v>
+        <v>0.00905540953701427</v>
       </c>
       <c r="E3">
-        <v>0.8881590319792567</v>
+        <v>0.8986685290226607</v>
       </c>
       <c r="F3">
-        <v>0.8867509620670697</v>
+        <v>0.01242082520910338</v>
       </c>
       <c r="G3">
-        <v>0.8905790555993311</v>
+        <v>0.8937917161647458</v>
+      </c>
+      <c r="H3">
+        <v>0.01388236557267272</v>
+      </c>
+      <c r="I3">
+        <v>0.8875680242882511</v>
+      </c>
+      <c r="J3">
+        <v>0.01674382767960443</v>
+      </c>
+      <c r="K3">
+        <v>0.8925138558986541</v>
+      </c>
+      <c r="L3">
+        <v>0.01128968171563637</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8765084473049075</v>
+        <v>0.8709952066947381</v>
       </c>
       <c r="D4">
-        <v>0.8837071884540662</v>
+        <v>0.01004177487076623</v>
       </c>
       <c r="E4">
-        <v>0.8808988764044944</v>
+        <v>0.8737149459746425</v>
       </c>
       <c r="F4">
-        <v>0.8845077968882258</v>
+        <v>0.01139211010137904</v>
       </c>
       <c r="G4">
-        <v>0.8891766488849109</v>
+        <v>0.8761123290019963</v>
+      </c>
+      <c r="H4">
+        <v>0.01580657835323751</v>
+      </c>
+      <c r="I4">
+        <v>0.8750726785816578</v>
+      </c>
+      <c r="J4">
+        <v>0.01671271091790429</v>
+      </c>
+      <c r="K4">
+        <v>0.8860886777513857</v>
+      </c>
+      <c r="L4">
+        <v>0.009772689361251341</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.8885654197266751</v>
+        <v>0.8890519318873971</v>
       </c>
       <c r="D5">
-        <v>0.8835420482930891</v>
+        <v>0.007185834774605518</v>
       </c>
       <c r="E5">
-        <v>0.8819360414866033</v>
+        <v>0.8784355641859858</v>
       </c>
       <c r="F5">
-        <v>0.8772180772620575</v>
+        <v>0.01219181576947925</v>
       </c>
       <c r="G5">
-        <v>0.8765256114938047</v>
+        <v>0.8804936744516431</v>
+      </c>
+      <c r="H5">
+        <v>0.009915466456784821</v>
+      </c>
+      <c r="I5">
+        <v>0.8809374462966145</v>
+      </c>
+      <c r="J5">
+        <v>0.0112322049635825</v>
+      </c>
+      <c r="K5">
+        <v>0.8939350752177354</v>
+      </c>
+      <c r="L5">
+        <v>0.02073730548299743</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8570488626986364</v>
+        <v>0.8949114165408755</v>
       </c>
       <c r="D6">
-        <v>0.8415566194837636</v>
+        <v>0.00860484306114285</v>
       </c>
       <c r="E6">
-        <v>0.8378565254969749</v>
+        <v>0.8804608763293418</v>
       </c>
       <c r="F6">
-        <v>0.8250805867518347</v>
+        <v>0.01086036593397243</v>
       </c>
       <c r="G6">
-        <v>0.8209960162644035</v>
+        <v>0.8643898570781232</v>
+      </c>
+      <c r="H6">
+        <v>0.01360163480075617</v>
+      </c>
+      <c r="I6">
+        <v>0.8582241364495617</v>
+      </c>
+      <c r="J6">
+        <v>0.01567532135476022</v>
+      </c>
+      <c r="K6">
+        <v>0.8470953512046149</v>
+      </c>
+      <c r="L6">
+        <v>0.01740784161532815</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.9167062883336395</v>
+        <v>0.919150181404094</v>
       </c>
       <c r="D7">
-        <v>0.9060323341659728</v>
+        <v>0.007877274826622909</v>
       </c>
       <c r="E7">
-        <v>0.8895419187554019</v>
+        <v>0.9072668790206733</v>
       </c>
       <c r="F7">
-        <v>0.8789024145483738</v>
+        <v>0.01082425416504697</v>
       </c>
       <c r="G7">
-        <v>0.8711339781622103</v>
+        <v>0.898335027494397</v>
+      </c>
+      <c r="H7">
+        <v>0.01011892128668629</v>
+      </c>
+      <c r="I7">
+        <v>0.8951341152546257</v>
+      </c>
+      <c r="J7">
+        <v>0.01564437495892368</v>
+      </c>
+      <c r="K7">
+        <v>0.8967961769030653</v>
+      </c>
+      <c r="L7">
+        <v>0.01430570472898387</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.7713477144032306</v>
+        <v>0.9079259023860597</v>
       </c>
       <c r="D8">
-        <v>0.7779077157923953</v>
+        <v>0.008730573768285992</v>
       </c>
       <c r="E8">
-        <v>0.7733794295592048</v>
+        <v>0.9030532985844959</v>
       </c>
       <c r="F8">
-        <v>0.7746253392322661</v>
+        <v>0.00852133568105664</v>
       </c>
       <c r="G8">
-        <v>0.7806982382059736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.9046471171033673</v>
-      </c>
-      <c r="D9">
-        <v>0.9028669164585068</v>
-      </c>
-      <c r="E9">
-        <v>0.8973206568712188</v>
-      </c>
-      <c r="F9">
-        <v>0.8970299397017373</v>
-      </c>
-      <c r="G9">
-        <v>0.8952650927570689</v>
+        <v>0.9009644471115574</v>
+      </c>
+      <c r="H8">
+        <v>0.01485101149404087</v>
+      </c>
+      <c r="I8">
+        <v>0.8981647763074985</v>
+      </c>
+      <c r="J8">
+        <v>0.0140319865552274</v>
+      </c>
+      <c r="K8">
+        <v>0.8963211175206423</v>
+      </c>
+      <c r="L8">
+        <v>0.01024910528281289</v>
       </c>
     </row>
   </sheetData>
